--- a/xlsx/高爾夫球_intext.xlsx
+++ b/xlsx/高爾夫球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>高尔夫 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_高爾夫球</t>
+    <t>体育运动_体育运动_体育运动列表_高爾夫球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%90%83_(%E9%9B%9E%E5%B0%BE%E9%85%92)</t>
